--- a/ExportedData.xlsx
+++ b/ExportedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\КУБИК\3 курс 6 семак\Разработка в интегрированных средах\Итоговый проект\MyC#IndividualWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EE466CB-F83C-4B41-92B5-6D41E31ADDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADC1CBEE-69A1-4E11-8291-708814419BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1230" windowWidth="28800" windowHeight="15555" xr2:uid="{0498CA06-BA50-4D07-9439-0D8D0B767597}"/>
+    <workbookView xWindow="3120" yWindow="3570" windowWidth="28800" windowHeight="15555" xr2:uid="{DCCB69C8-CE62-468C-BC01-CE265FA58FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Имя клиента</t>
   </si>
@@ -51,12 +51,24 @@
     <t>Предоплата</t>
   </si>
   <si>
-    <t>Авансовый платеж</t>
+    <t>Внесённый платеж</t>
   </si>
   <si>
     <t>Статус платежа</t>
   </si>
   <si>
+    <t>Васильев Василий</t>
+  </si>
+  <si>
+    <t>10.05.2024 0:00:00</t>
+  </si>
+  <si>
+    <t>Смартфон - Количество: 3 - Сумма за количество: 2400.0000, Фотоаппарат - Количество: 1 - Сумма за количество: 1200.0000, Ноутбук - Количество: 1 - Сумма за количество: 1500.0000, Телевизор - Количество: 1 - Сумма за количество: 2000.0000, Наушники - Количество: 2 - Сумма за количество: 200.0000</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
     <t>Михайлов Алексей</t>
   </si>
   <si>
@@ -64,9 +76,6 @@
   </si>
   <si>
     <t>Монитор - Количество: 55 - Сумма за количество: 55000.0000, Ноутбук - Количество: 101 - Сумма за количество: 150000.0000</t>
-  </si>
-  <si>
-    <t>оплачено</t>
   </si>
 </sst>
 </file>
@@ -419,8 +428,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2A557B-4B1F-4183-AF0F-0F95C5F65770}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4073BB1A-599D-43AC-9AF6-F37E139CB095}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,15 +469,38 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
+        <v>73000000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>21900000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3300400000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
         <v>2070000000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>621000000</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="1">
         <v>475677770000</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/ExportedData.xlsx
+++ b/ExportedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\КУБИК\3 курс 6 семак\Разработка в интегрированных средах\Итоговый проект\MyC#IndividualWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADC1CBEE-69A1-4E11-8291-708814419BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F314BF54-14DA-4013-BF4D-160525C3292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3570" windowWidth="28800" windowHeight="15555" xr2:uid="{DCCB69C8-CE62-468C-BC01-CE265FA58FDF}"/>
+    <workbookView xWindow="3120" yWindow="3570" windowWidth="28800" windowHeight="15555" xr2:uid="{51F23393-8C2D-4D46-BE81-07284E263737}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Имя клиента</t>
   </si>
@@ -57,6 +57,18 @@
     <t>Статус платежа</t>
   </si>
   <si>
+    <t>Смирнова Елена</t>
+  </si>
+  <si>
+    <t>04.05.2024 0:00:00</t>
+  </si>
+  <si>
+    <t>Монитор - Количество: 10 - Сумма за количество: 10000.0000, Ноутбук - Количество: 12 - Сумма за количество: 18000.0000</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
     <t>Васильев Василий</t>
   </si>
   <si>
@@ -64,9 +76,6 @@
   </si>
   <si>
     <t>Смартфон - Количество: 3 - Сумма за количество: 2400.0000, Фотоаппарат - Количество: 1 - Сумма за количество: 1200.0000, Ноутбук - Количество: 1 - Сумма за количество: 1500.0000, Телевизор - Количество: 1 - Сумма за количество: 2000.0000, Наушники - Количество: 2 - Сумма за количество: 200.0000</t>
-  </si>
-  <si>
-    <t>оплачено</t>
   </si>
   <si>
     <t>Михайлов Алексей</t>
@@ -428,8 +437,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4073BB1A-599D-43AC-9AF6-F37E139CB095}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C321881-843D-4751-874E-5F88C9521348}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,13 +478,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>73000000</v>
+        <v>280000000</v>
       </c>
       <c r="E2" s="1">
-        <v>21900000</v>
+        <v>84000000</v>
       </c>
       <c r="F2" s="1">
-        <v>3300400000</v>
+        <v>500000000</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -492,15 +501,38 @@
         <v>13</v>
       </c>
       <c r="D3" s="1">
+        <v>73000000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>21900000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3300400000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
         <v>2070000000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>621000000</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F4" s="1">
         <v>475677770000</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>10</v>
       </c>
     </row>
